--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_5_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_5_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00613943549700291</v>
+        <v>0.000490479086283413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00613943549700291</v>
+        <v>0.000490479086283413</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>32.77727343642389</v>
+        <v>47.5575205468682</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[6.465933973874343, 59.08861289897344]</t>
+          <t>[19.001831568798224, 76.11320952493818]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01577440912814154</v>
+        <v>0.001622621842740646</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01577440912814154</v>
+        <v>0.001622621842740646</v>
       </c>
       <c r="P2" t="n">
-        <v>1.150973885098963</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.2956053147521933, 2.0063424554457336]</t>
+          <t>[1.0880791372793484, 2.5220793875665803]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.009483383172265381</v>
+        <v>7.269495455375363e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009483383172265381</v>
+        <v>7.269495455375363e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>54.76152076895745</v>
+        <v>59.00631883470313</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[40.95814939898922, 68.56489213892569]</t>
+          <t>[43.04926774208796, 74.9633699273183]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.558986438889633e-10</v>
+        <v>2.219213035559164e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.558986438889633e-10</v>
+        <v>2.219213035559164e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>19.64444444444471</v>
+        <v>17.24052052052076</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.37037037037059</v>
+        <v>14.48010010010031</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.91851851851882</v>
+        <v>20.00094094094122</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001259373797742103</v>
+        <v>0.0001105256337661231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001259373797742103</v>
+        <v>0.0001105256337661231</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.05177972443324</v>
+        <v>44.59693068219404</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[15.63223451537921, 74.47132493348727]</t>
+          <t>[20.263405493064667, 68.9304558713234]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.003481712027822326</v>
+        <v>0.0006004799787404647</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003481712027822326</v>
+        <v>0.0006004799787404647</v>
       </c>
       <c r="P3" t="n">
-        <v>1.201289683354656</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 1.9308687580621964]</t>
+          <t>[0.5975001042863468, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001810188106611488</v>
+        <v>0.0002588134454946101</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001810188106611488</v>
+        <v>0.0002588134454946101</v>
       </c>
       <c r="T3" t="n">
-        <v>62.87327557948055</v>
+        <v>57.36105963487238</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.60599897847976, 79.14055218048134]</t>
+          <t>[43.935059142484896, 70.78706012725988]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.109297595064845e-10</v>
+        <v>4.615641202576626e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>7.109297595064845e-10</v>
+        <v>4.615641202576626e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.45185185185211</v>
+        <v>19.51665665665693</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.65925925925948</v>
+        <v>17.14366366366391</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.24444444444474</v>
+        <v>21.88964964964996</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.346177156586915e-05</v>
+        <v>0.03471946667985881</v>
       </c>
       <c r="I4" t="n">
-        <v>2.346177156586915e-05</v>
+        <v>0.03471946667985881</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>52.83599618563805</v>
+        <v>23.55730984922108</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.787797120625072, 77.88419525065103]</t>
+          <t>[1.4644946803476273, 45.65012501809453]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.000106728173089321</v>
+        <v>0.03716639992294191</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000106728173089321</v>
+        <v>0.03716639992294191</v>
       </c>
       <c r="P4" t="n">
-        <v>1.37739497724958</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 1.9308687580621964]</t>
+          <t>[0.03144737390980801, 2.6730267823336575]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.82776780475325e-06</v>
+        <v>0.04500473056051235</v>
       </c>
       <c r="S4" t="n">
-        <v>8.82776780475325e-06</v>
+        <v>0.04500473056051235</v>
       </c>
       <c r="T4" t="n">
-        <v>63.25755504814586</v>
+        <v>48.80677474593714</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.84269347888497, 77.67241661740675]</t>
+          <t>[36.30716619987752, 61.30638329199676]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.14457340774743e-11</v>
+        <v>5.433984373581779e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14457340774743e-11</v>
+        <v>5.433984373581779e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>18.77777777777802</v>
+        <v>18.98394394394421</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.65925925925947</v>
+        <v>13.89895895895916</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.89629629629657</v>
+        <v>24.06892892892927</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.861032101930121e-07</v>
+        <v>0.03149955749924604</v>
       </c>
       <c r="I5" t="n">
-        <v>7.861032101930121e-07</v>
+        <v>0.03149955749924604</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.42246890913549</v>
+        <v>25.80648916209751</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[30.379089309988984, 70.465848508282]</t>
+          <t>[1.7161353014421437, 49.89684302275287]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>7.361847551345946e-06</v>
+        <v>0.03633621323238789</v>
       </c>
       <c r="O5" t="n">
-        <v>7.361847551345946e-06</v>
+        <v>0.03633621323238789</v>
       </c>
       <c r="P5" t="n">
-        <v>1.301921279866041</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 1.7673424137311953]</t>
+          <t>[-0.06918422260157797, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.087243473696375e-06</v>
+        <v>0.0624434432501102</v>
       </c>
       <c r="S5" t="n">
-        <v>1.087243473696375e-06</v>
+        <v>0.0624434432501102</v>
       </c>
       <c r="T5" t="n">
-        <v>52.07682715112136</v>
+        <v>57.82651967175397</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[40.576537223297336, 63.57711707894539]</t>
+          <t>[44.35890810326862, 71.29413124023932]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.571143794711134e-12</v>
+        <v>4.0061731709784e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>8.571143794711134e-12</v>
+        <v>4.0061731709784e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>19.06666666666692</v>
+        <v>19.27451451451479</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.28518518518541</v>
+        <v>14.09267267267287</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.84814814814843</v>
+        <v>24.4563563563567</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004677813870343051</v>
+        <v>0.000119678506494636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004677813870343051</v>
+        <v>0.000119678506494636</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.14319275526035</v>
+        <v>50.36362412809703</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[8.254137898820488, 68.03224761170021]</t>
+          <t>[25.003897088834762, 75.7233511673593]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01354093800434342</v>
+        <v>0.0002333088500574565</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01354093800434342</v>
+        <v>0.0002333088500574565</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8742369946926551</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 1.5786581702723481]</t>
+          <t>[0.836500146000887, 2.094395102393195]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01614606208339331</v>
+        <v>2.538723835798784e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01614606208339331</v>
+        <v>2.538723835798784e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>64.05499524390373</v>
+        <v>64.17931835958022</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.45221597944122, 79.65777450836624]</t>
+          <t>[48.91601236944797, 79.44262434971247]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.405786598240866e-10</v>
+        <v>7.233280641116835e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.405786598240866e-10</v>
+        <v>7.233280641116835e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>20.70370370370398</v>
+        <v>18.54808808808835</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.00740740740765</v>
+        <v>16.1266666666669</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.40000000000031</v>
+        <v>20.9695095095098</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.690518000420973e-06</v>
+        <v>5.26713985891103e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.690518000420973e-06</v>
+        <v>5.26713985891103e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.94251579694549</v>
+        <v>43.75542970154144</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[25.318938015010332, 70.56609357888064]</t>
+          <t>[19.712403332825687, 67.7984560702572]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001002517097472566</v>
+        <v>0.000649111073027564</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001002517097472566</v>
+        <v>0.000649111073027564</v>
       </c>
       <c r="P7" t="n">
-        <v>0.84907909556481</v>
+        <v>0.723289599925578</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.3019212798660424]</t>
+          <t>[0.1823947686768852, 1.2641844311742707]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.009905383267588386</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.009905383267588386</v>
       </c>
       <c r="T7" t="n">
-        <v>58.88341442294912</v>
+        <v>54.31985748598659</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.083080987841825, 70.6837478580564]</t>
+          <t>[41.80987440559885, 66.82984056637433]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.443112544549876e-13</v>
+        <v>2.909117391425298e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>4.443112544549876e-13</v>
+        <v>2.909117391425298e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>20.80000000000027</v>
+        <v>21.40536536536567</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.06666666666692</v>
+        <v>19.32294294294322</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.53333333333363</v>
+        <v>23.48778778778812</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002020649942098163</v>
+        <v>0.0009378884153542488</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002020649942098163</v>
+        <v>0.0009378884153542488</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.53040806913213</v>
+        <v>43.41940524967757</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[13.000842914909185, 72.05997322335507]</t>
+          <t>[15.731271597367268, 71.10753890198788]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.005739861327804352</v>
+        <v>0.002832374208390664</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005739861327804352</v>
+        <v>0.002832374208390664</v>
       </c>
       <c r="P8" t="n">
-        <v>1.201289683354656</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 1.9308687580621964]</t>
+          <t>[0.5975001042863468, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.001810188106611488</v>
+        <v>0.0006527120661761199</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001810188106611488</v>
+        <v>0.0006527120661761199</v>
       </c>
       <c r="T8" t="n">
-        <v>52.01664533370715</v>
+        <v>67.55025626540296</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[35.999071411868485, 68.03421925554582]</t>
+          <t>[52.21900513541786, 82.88150739538807]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.903148376200761e-08</v>
+        <v>1.908873059619509e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.903148376200761e-08</v>
+        <v>1.908873059619509e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>19.45185185185211</v>
+        <v>19.08080080080107</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.65925925925948</v>
+        <v>16.27195195195218</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.24444444444474</v>
+        <v>21.88964964964996</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.397852934099554e-06</v>
+        <v>0.006186995510041426</v>
       </c>
       <c r="I9" t="n">
-        <v>2.397852934099554e-06</v>
+        <v>0.006186995510041426</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.02460990162914</v>
+        <v>33.52081059795327</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[33.47139237115452, 78.57782743210376]</t>
+          <t>[5.923423844703137, 61.118197351203406]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>9.100119428895326e-06</v>
+        <v>0.01840084293680833</v>
       </c>
       <c r="O9" t="n">
-        <v>9.100119428895326e-06</v>
+        <v>0.01840084293680833</v>
       </c>
       <c r="P9" t="n">
-        <v>1.440289725069195</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.9748685912040411, 1.9057108589343486]</t>
+          <t>[0.1823947686768843, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.407720884305519e-07</v>
+        <v>0.015773177139772</v>
       </c>
       <c r="S9" t="n">
-        <v>1.407720884305519e-07</v>
+        <v>0.015773177139772</v>
       </c>
       <c r="T9" t="n">
-        <v>62.08541368011224</v>
+        <v>66.07525551038739</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.585147039607975, 75.5856803206165]</t>
+          <t>[51.956404199339545, 80.19410682143524]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.417666315565839e-12</v>
+        <v>3.205880005907602e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>5.417666315565839e-12</v>
+        <v>3.205880005907602e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>18.53703703703728</v>
+        <v>20.6305105105108</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.75555555555578</v>
+        <v>17.77323323323348</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.31851851851879</v>
+        <v>23.48778778778812</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.05000000000032</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.402420431206313e-05</v>
+        <v>0.00103465543651049</v>
       </c>
       <c r="I10" t="n">
-        <v>6.402420431206313e-05</v>
+        <v>0.00103465543651049</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.99105322792224</v>
+        <v>39.34339993959943</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[17.555529417500974, 58.426577038343495]</t>
+          <t>[16.021188348439914, 62.665611530758945]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0005115726369746554</v>
+        <v>0.00143137975866936</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005115726369746554</v>
+        <v>0.00143137975866936</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9497106920761951</v>
+        <v>1.440289725069194</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.40881586082750143, 1.4906055233248887]</t>
+          <t>[0.685552751233808, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0009534594437459187</v>
+        <v>0.0003781036290455564</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0009534594437459187</v>
+        <v>0.0003781036290455564</v>
       </c>
       <c r="T10" t="n">
-        <v>53.57152453434318</v>
+        <v>52.75551087744336</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.560710417483364, 64.582338651203]</t>
+          <t>[38.749068109988144, 66.76195364489858]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.776623954849128e-13</v>
+        <v>1.388865911167159e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>9.776623954849128e-13</v>
+        <v>1.388865911167159e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>20.41481481481508</v>
+        <v>18.64494494494521</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.34444444444468</v>
+        <v>15.73923923923946</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.48518518518548</v>
+        <v>21.55065065065096</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05351121296793993</v>
+        <v>0.006447891480168666</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05351121296793993</v>
+        <v>0.006447891480168666</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>28.63537523801497</v>
+        <v>36.44011665385295</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-2.359393080532307, 59.63014355656224]</t>
+          <t>[10.875110394446416, 62.00512291325949]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.06931597369791631</v>
+        <v>0.006218523301353418</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06931597369791631</v>
+        <v>0.006218523301353418</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.01886842434588498</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.283079345852041, 3.9560796378538132]</t>
+          <t>[-0.9434212172942322, 0.9811580659860022]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5918102425510732</v>
+        <v>0.9686726462886743</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5918102425510732</v>
+        <v>0.9686726462886743</v>
       </c>
       <c r="T11" t="n">
-        <v>67.23845310595851</v>
+        <v>55.01469578459257</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[51.08140650274626, 83.39549970917076]</t>
+          <t>[39.854882172498066, 70.17450939668707]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.652567634077514e-11</v>
+        <v>3.553661587218926e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>9.652567634077514e-11</v>
+        <v>3.553661587218926e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>21.95773773773819</v>
+        <v>24.75543543543587</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.381481481481675</v>
+        <v>20.95264264264301</v>
       </c>
       <c r="Z11" t="n">
-        <v>34.5339939939947</v>
+        <v>28.55822822822874</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.010816501200722e-06</v>
+        <v>8.364243119451942e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>6.010816501200722e-06</v>
+        <v>8.364243119451942e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.94293782225097</v>
+        <v>59.00108800885423</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[26.615759246934772, 73.27011639756716]</t>
+          <t>[32.567207024445395, 85.43496899326306]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.712650442421754e-05</v>
+        <v>4.829451850918431e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>8.712650442421754e-05</v>
+        <v>4.829451850918431e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9622896416401163</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 1.42771077550527]</t>
+          <t>[-0.2327105669325782, 0.798763297309117]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0001393682633537008</v>
+        <v>0.2749039885462849</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001393682633537008</v>
+        <v>0.2749039885462849</v>
       </c>
       <c r="T12" t="n">
-        <v>66.70089941693385</v>
+        <v>64.16944662970516</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[54.09513271694625, 79.30666611692145]</t>
+          <t>[49.253940053636825, 79.0849532057735]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.816769371198461e-14</v>
+        <v>3.788125368942019e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>6.816769371198461e-14</v>
+        <v>3.788125368942019e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>21.45063063063107</v>
+        <v>23.71153153153195</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.57433433433474</v>
+        <v>21.67343343343382</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.32692692692741</v>
+        <v>25.74962962963009</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001253853972235097</v>
+        <v>0.6867260805483093</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001253853972235097</v>
+        <v>0.6867260805483093</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>37.53151283279668</v>
+        <v>9.917142030493757</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[17.180570012145374, 57.882455653447984]</t>
+          <t>[-20.310973454547792, 40.145257515535306]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0005600345598817391</v>
+        <v>0.5121218984555305</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0005600345598817391</v>
+        <v>0.5121218984555305</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2515789912784623</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, 0.33963163822592257]</t>
+          <t>[-3.2202110883643122, 2.96863209708585]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3959502812959181</v>
+        <v>0.9351099027366394</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3959502812959181</v>
+        <v>0.9351099027366394</v>
       </c>
       <c r="T13" t="n">
-        <v>54.46152907326729</v>
+        <v>71.86998969886594</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.26180560425885, 65.66125254227572]</t>
+          <t>[55.8908285273056, 87.84915087042627]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.938716516444401e-13</v>
+        <v>1.04647401855118e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>9.938716516444401e-13</v>
+        <v>1.04647401855118e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>1.014214214214238</v>
+        <v>0.4970970970971074</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.369189189189211</v>
+        <v>-11.7314914914917</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.397617617617688</v>
+        <v>12.72568568568591</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02195414239790239</v>
+        <v>0.02876368894042569</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02195414239790239</v>
+        <v>0.02876368894042569</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>31.75337971173696</v>
+        <v>27.91036184600318</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[6.298617069610351, 57.208142353863565]</t>
+          <t>[3.2391394391221553, 52.58158425288421]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.01564149177876706</v>
+        <v>0.02749159025288583</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01564149177876706</v>
+        <v>0.02749159025288583</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.0503157982556921</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.1887107337907317, 1.0880791372793475]</t>
+          <t>[-1.0188949146777704, 1.5597897459264631]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.929460127351492</v>
+        <v>0.6746935253782336</v>
       </c>
       <c r="S14" t="n">
-        <v>0.929460127351492</v>
+        <v>0.6746935253782336</v>
       </c>
       <c r="T14" t="n">
-        <v>52.72957398810836</v>
+        <v>54.02167834009504</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[37.42551792802706, 68.03363004818965]</t>
+          <t>[39.936949265520084, 68.10640741466999]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.252791759220884e-08</v>
+        <v>8.687768282555908e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>1.252791759220884e-08</v>
+        <v>8.687768282555908e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2028428428428448</v>
+        <v>23.76124124124167</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.386476476476567</v>
+        <v>18.66599599599633</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.792162162162256</v>
+        <v>28.856486486487</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6.985642908574619e-07</v>
+        <v>0.001015497445051583</v>
       </c>
       <c r="I15" t="n">
-        <v>6.985642908574619e-07</v>
+        <v>0.001015497445051583</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>57.3435969442714</v>
+        <v>33.20724268198437</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[35.63515231899777, 79.05204156954503]</t>
+          <t>[11.906714253085227, 54.50777111088351]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.144551432798792e-06</v>
+        <v>0.002982580554321101</v>
       </c>
       <c r="O15" t="n">
-        <v>3.144551432798792e-06</v>
+        <v>0.002982580554321101</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1635263443310002</v>
+        <v>-0.4905790329930007</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 0.27673689040630833]</t>
+          <t>[-1.1572633598809245, 0.17610529389492324]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.458294568724213</v>
+        <v>0.1452895059372719</v>
       </c>
       <c r="S15" t="n">
-        <v>0.458294568724213</v>
+        <v>0.1452895059372719</v>
       </c>
       <c r="T15" t="n">
-        <v>69.5482490795566</v>
+        <v>50.15954207406931</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[56.81378839729791, 82.28270976181528]</t>
+          <t>[38.44925883087922, 61.86982531725941]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>4.291211830320663e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>4.291211830320663e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6592392392392519</v>
+        <v>1.938678678678713</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.11563563563566</v>
+        <v>-0.6959359359359478</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.434114114114164</v>
+        <v>4.573293293293373</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.33000000000052</v>
+        <v>24.83000000000044</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.770834088978603e-06</v>
+        <v>2.971602498957893e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>3.770834088978603e-06</v>
+        <v>2.971602498957893e-06</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>47.21620572571093</v>
+        <v>44.12626929151763</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[24.332607992014516, 70.09980345940734]</t>
+          <t>[23.20465401616423, 65.04788456687103]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0001431825124207364</v>
+        <v>0.0001068989327797087</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001431825124207364</v>
+        <v>0.0001068989327797087</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.767315923399309</v>
+        <v>-0.8931054190385401</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.2201581077005406, -0.3144737390980774]</t>
+          <t>[-1.3711055024676178, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.0004831617890768136</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.0004831617890768136</v>
       </c>
       <c r="T16" t="n">
-        <v>53.97325173497248</v>
+        <v>57.53691534545195</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.18563390373519, 65.76086956620978]</t>
+          <t>[46.69462378287908, 68.37920690802483]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.169509347841995e-12</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="W16" t="n">
-        <v>6.169509347841995e-12</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="X16" t="n">
-        <v>3.093353353353418</v>
+        <v>3.529389389389454</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.267767767767794</v>
+        <v>1.640420420420451</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.918938938939042</v>
+        <v>5.418358358358457</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_5_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_5_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000490479086283413</v>
+        <v>0.00884386605635723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000490479086283413</v>
+        <v>0.00884386605635723</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>47.5575205468682</v>
+        <v>30.20130585873124</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.001831568798224, 76.11320952493818]</t>
+          <t>[5.87202631839115, 54.53058539907133]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001622621842740646</v>
+        <v>0.01612318811080171</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001622621842740646</v>
+        <v>0.01612318811080171</v>
       </c>
       <c r="P2" t="n">
-        <v>1.805079262422964</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0880791372793484, 2.5220793875665803]</t>
+          <t>[0.8868159442565791, 3.000079470995658]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.269495455375363e-06</v>
+        <v>0.0005770707952867937</v>
       </c>
       <c r="S2" t="n">
-        <v>7.269495455375363e-06</v>
+        <v>0.0005770707952867937</v>
       </c>
       <c r="T2" t="n">
-        <v>59.00631883470313</v>
+        <v>49.01172179929182</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.04926774208796, 74.9633699273183]</t>
+          <t>[35.591135532417496, 62.432308066166144]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.219213035559164e-09</v>
+        <v>3.036044304849383e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.219213035559164e-09</v>
+        <v>3.036044304849383e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>17.24052052052076</v>
+        <v>17.00480480480509</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.48010010010031</v>
+        <v>12.86450450450472</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.00094094094122</v>
+        <v>21.14510510510545</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001105256337661231</v>
+        <v>0.0001303060897224206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001105256337661231</v>
+        <v>0.0001303060897224206</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.59693068219404</v>
+        <v>47.53742137529122</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[20.263405493064667, 68.9304558713234]</t>
+          <t>[21.850086176285146, 73.22475657429729]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0006004799787404647</v>
+        <v>0.0005386289907955977</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006004799787404647</v>
+        <v>0.0005386289907955977</v>
       </c>
       <c r="P3" t="n">
-        <v>1.213868632918579</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5975001042863468, 1.8302371615508104]</t>
+          <t>[1.2893423303021176, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0002588134454946101</v>
+        <v>1.914468394925706e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002588134454946101</v>
+        <v>1.914468394925706e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>57.36105963487238</v>
+        <v>65.51866112144678</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.935059142484896, 70.78706012725988]</t>
+          <t>[50.89755746306193, 80.13976477983164]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.615641202576626e-11</v>
+        <v>1.166688967657592e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>4.615641202576626e-11</v>
+        <v>1.166688967657592e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.51665665665693</v>
+        <v>17.10338338338367</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.14366366366391</v>
+        <v>14.63891891891916</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.88964964964996</v>
+        <v>19.56784784784817</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03471946667985881</v>
+        <v>0.02268670252828509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03471946667985881</v>
+        <v>0.02268670252828509</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>23.55730984922108</v>
+        <v>31.70568942762469</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.4644946803476273, 45.65012501809453]</t>
+          <t>[3.4186719253228404, 59.99270692992655]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.03716639992294191</v>
+        <v>0.02887520905281704</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03716639992294191</v>
+        <v>0.02887520905281704</v>
       </c>
       <c r="P4" t="n">
-        <v>1.352237078121733</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.03144737390980801, 2.6730267823336575]</t>
+          <t>[0.5471843060306547, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04500473056051235</v>
+        <v>0.005905227615755848</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04500473056051235</v>
+        <v>0.005905227615755848</v>
       </c>
       <c r="T4" t="n">
-        <v>48.80677474593714</v>
+        <v>54.28194944038873</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.30716619987752, 61.30638329199676]</t>
+          <t>[38.364450938417306, 70.19944794236015]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.433984373581779e-10</v>
+        <v>1.596920329305362e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433984373581779e-10</v>
+        <v>1.596920329305362e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>18.98394394394421</v>
+        <v>17.54698698698728</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.89895895895916</v>
+        <v>12.61805805805827</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.06892892892927</v>
+        <v>22.47591591591629</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03149955749924604</v>
+        <v>0.004284281797198308</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03149955749924604</v>
+        <v>0.004284281797198308</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>25.80648916209751</v>
+        <v>31.89094280123675</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[1.7161353014421437, 49.89684302275287]</t>
+          <t>[9.314093941831388, 54.46779166064212]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.03633621323238789</v>
+        <v>0.006661299821541844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03633621323238789</v>
+        <v>0.006661299821541844</v>
       </c>
       <c r="P5" t="n">
-        <v>1.276763380738194</v>
+        <v>1.691868716347657</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.06918422260157797, 2.6227109840779654]</t>
+          <t>[0.77360539818127, 2.610132034514044]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0624434432501102</v>
+        <v>0.0005660239020437441</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0624434432501102</v>
+        <v>0.0005660239020437441</v>
       </c>
       <c r="T5" t="n">
-        <v>57.82651967175397</v>
+        <v>60.93699987438659</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.35890810326862, 71.29413124023932]</t>
+          <t>[47.84429864103991, 74.02970110773327]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.0061731709784e-11</v>
+        <v>3.783418023317608e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>4.0061731709784e-11</v>
+        <v>3.783418023317608e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>19.27451451451479</v>
+        <v>17.99059059059089</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.09267267267287</v>
+        <v>14.3924724724727</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.4563563563567</v>
+        <v>21.58870870870907</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000119678506494636</v>
+        <v>0.001094440146709674</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000119678506494636</v>
+        <v>0.001094440146709674</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.36362412809703</v>
+        <v>45.28171498255491</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[25.003897088834762, 75.7233511673593]</t>
+          <t>[15.137856646648885, 75.42557331846093]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0002333088500574565</v>
+        <v>0.00409321145297592</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002333088500574565</v>
+        <v>0.00409321145297592</v>
       </c>
       <c r="P6" t="n">
-        <v>1.465447624197041</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.836500146000887, 2.094395102393195]</t>
+          <t>[0.24528951649650121, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.538723835798784e-05</v>
+        <v>0.007199951953851258</v>
       </c>
       <c r="S6" t="n">
-        <v>2.538723835798784e-05</v>
+        <v>0.007199951953851258</v>
       </c>
       <c r="T6" t="n">
-        <v>64.17931835958022</v>
+        <v>69.1102554297463</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.91601236944797, 79.44262434971247]</t>
+          <t>[52.98261018054171, 85.2379006789509]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.233280641116835e-11</v>
+        <v>4.239519846294115e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>7.233280641116835e-11</v>
+        <v>4.239519846294115e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>18.54808808808835</v>
+        <v>21.24368368368404</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.1266666666669</v>
+        <v>18.82850850850883</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.9695095095098</v>
+        <v>23.65885885885925</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.26713985891103e-05</v>
+        <v>1.138056972771473e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>5.26713985891103e-05</v>
+        <v>1.138056972771473e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.75542970154144</v>
+        <v>50.46757862868568</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[19.712403332825687, 67.7984560702572]</t>
+          <t>[30.146029332395585, 70.78912792497577]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.000649111073027564</v>
+        <v>9.140239554339402e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000649111073027564</v>
+        <v>9.140239554339402e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.723289599925578</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 1.2641844311742707]</t>
+          <t>[0.9245527929483481, 1.8553950606786556]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.009905383267588386</v>
+        <v>2.965379348740527e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>0.009905383267588386</v>
+        <v>2.965379348740527e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>54.31985748598659</v>
+        <v>59.50579889245671</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.80987440559885, 66.82984056637433]</t>
+          <t>[47.67837400922167, 71.33322377569175]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.909117391425298e-11</v>
+        <v>3.428368700042483e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.909117391425298e-11</v>
+        <v>3.428368700042483e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>21.40536536536567</v>
+        <v>19.17353353353385</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.32294294294322</v>
+        <v>17.34982982983012</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.48778778778812</v>
+        <v>20.99723723723758</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009378884153542488</v>
+        <v>0.0008769578436743641</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009378884153542488</v>
+        <v>0.0008769578436743641</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>43.41940524967757</v>
+        <v>40.43201677805013</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[15.731271597367268, 71.10753890198788]</t>
+          <t>[12.658521312583446, 68.20551224351682]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.002832374208390664</v>
+        <v>0.005277432555873318</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002832374208390664</v>
+        <v>0.005277432555873318</v>
       </c>
       <c r="P8" t="n">
-        <v>1.327079178993887</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.5975001042863468, 2.0566582537014266]</t>
+          <t>[0.2704474156243464, 1.4528686746331179]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0006527120661761199</v>
+        <v>0.005229782403173289</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0006527120661761199</v>
+        <v>0.005229782403173289</v>
       </c>
       <c r="T8" t="n">
-        <v>67.55025626540296</v>
+        <v>57.49084992641136</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[52.21900513541786, 82.88150739538807]</t>
+          <t>[43.353829829386015, 71.6278700234367]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.908873059619509e-11</v>
+        <v>1.822109130245053e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.908873059619509e-11</v>
+        <v>1.822109130245053e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>19.08080080080107</v>
+        <v>21.24368368368404</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.27195195195218</v>
+        <v>18.9270870870874</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.88964964964996</v>
+        <v>23.56028028028067</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006186995510041426</v>
+        <v>9.742463757955733e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006186995510041426</v>
+        <v>9.742463757955733e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>33.52081059795327</v>
+        <v>49.75882353410393</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[5.923423844703137, 61.118197351203406]</t>
+          <t>[25.39289483449366, 74.12475223371419]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01840084293680833</v>
+        <v>0.0001637667359166706</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01840084293680833</v>
+        <v>0.0001637667359166706</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9245527929483472</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.1823947686768843, 1.6667108172198102]</t>
+          <t>[0.5471843060306547, 1.553500271144502]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.015773177139772</v>
+        <v>0.0001227472960696474</v>
       </c>
       <c r="S9" t="n">
-        <v>0.015773177139772</v>
+        <v>0.0001227472960696474</v>
       </c>
       <c r="T9" t="n">
-        <v>66.07525551038739</v>
+        <v>62.18627319362449</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.956404199339545, 80.19410682143524]</t>
+          <t>[49.242785772820326, 75.12976061442865]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.205880005907602e-12</v>
+        <v>1.441291530568378e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>3.205880005907602e-12</v>
+        <v>1.441291530568378e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>20.6305105105108</v>
+        <v>20.50434434434469</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.77323323323348</v>
+        <v>18.53277277277308</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.48778778778812</v>
+        <v>22.47591591591629</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.19000000000034</v>
+        <v>24.62000000000041</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00103465543651049</v>
+        <v>0.01117945817974519</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00103465543651049</v>
+        <v>0.01117945817974519</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>39.34339993959943</v>
+        <v>35.13371448100422</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[16.021188348439914, 62.665611530758945]</t>
+          <t>[5.177250253391918, 65.09017870861652]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.00143137975866936</v>
+        <v>0.02255276668046569</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00143137975866936</v>
+        <v>0.02255276668046569</v>
       </c>
       <c r="P10" t="n">
-        <v>1.440289725069194</v>
+        <v>0.5975001042863477</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.685552751233808, 2.19502669890458]</t>
+          <t>[-0.20755266780473036, 1.4025528763774258]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0003781036290455564</v>
+        <v>0.1419357197691766</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0003781036290455564</v>
+        <v>0.1419357197691766</v>
       </c>
       <c r="T10" t="n">
-        <v>52.75551087744336</v>
+        <v>67.95974691090703</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[38.749068109988144, 66.76195364489858]</t>
+          <t>[52.223943044089, 83.69555077772506]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.388865911167159e-09</v>
+        <v>3.393996195200089e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.388865911167159e-09</v>
+        <v>3.393996195200089e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>18.64494494494521</v>
+        <v>22.27875875875913</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.73923923923946</v>
+        <v>19.12424424424456</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.55065065065096</v>
+        <v>25.4332732732737</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006447891480168666</v>
+        <v>0.0007709850247085148</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006447891480168666</v>
+        <v>0.0007709850247085148</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>36.44011665385295</v>
+        <v>36.10926939057865</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[10.875110394446416, 62.00512291325949]</t>
+          <t>[12.079013207001893, 60.139525574155414]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.006218523301353418</v>
+        <v>0.004082572899829495</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006218523301353418</v>
+        <v>0.004082572899829495</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01886842434588498</v>
+        <v>0.6478159025420398</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.9434212172942322, 0.9811580659860022]</t>
+          <t>[0.006289474781961957, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.9686726462886743</v>
+        <v>0.04788768652998265</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9686726462886743</v>
+        <v>0.04788768652998265</v>
       </c>
       <c r="T11" t="n">
-        <v>55.01469578459257</v>
+        <v>72.1732393394413</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[39.854882172498066, 70.17450939668707]</t>
+          <t>[59.83287734783957, 84.51360133104302]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.553661587218926e-09</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="W11" t="n">
-        <v>3.553661587218926e-09</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="X11" t="n">
-        <v>24.75543543543587</v>
+        <v>22.51211211211255</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.95264264264301</v>
+        <v>19.94934934934973</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.55822822822874</v>
+        <v>25.07487487487536</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.364243119451942e-06</v>
+        <v>0.0002697278408707593</v>
       </c>
       <c r="I12" t="n">
-        <v>8.364243119451942e-06</v>
+        <v>0.0002697278408707593</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>59.00108800885423</v>
+        <v>39.54119208265256</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[32.567207024445395, 85.43496899326306]</t>
+          <t>[15.112809534805834, 63.96957463049928]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.829451850918431e-05</v>
+        <v>0.002125380245661557</v>
       </c>
       <c r="O12" t="n">
-        <v>4.829451850918431e-05</v>
+        <v>0.002125380245661557</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.7232895999255788</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.2327105669325782, 0.798763297309117]</t>
+          <t>[0.15723686954904004, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2749039885462849</v>
+        <v>0.01343058125023022</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2749039885462849</v>
+        <v>0.01343058125023022</v>
       </c>
       <c r="T12" t="n">
-        <v>64.16944662970516</v>
+        <v>56.81872915316302</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.253940053636825, 79.0849532057735]</t>
+          <t>[44.32400864245736, 69.31344966386868]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.788125368942019e-11</v>
+        <v>7.567280135845067e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>3.788125368942019e-11</v>
+        <v>7.567280135845067e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>23.71153153153195</v>
+        <v>22.21061061061103</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.67343343343382</v>
+        <v>19.94934934934973</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.74962962963009</v>
+        <v>24.47187187187234</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6867260805483093</v>
+        <v>2.442287644854879e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6867260805483093</v>
+        <v>2.442287644854879e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>9.917142030493757</v>
+        <v>44.7973728507657</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-20.310973454547792, 40.145257515535306]</t>
+          <t>[22.75237897099977, 66.84236673053162]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.5121218984555305</v>
+        <v>0.0001745277447513516</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5121218984555305</v>
+        <v>0.0001745277447513516</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1257894956392311</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.2202110883643122, 2.96863209708585]</t>
+          <t>[-0.16981581911296129, 0.8616580451287321]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.9351099027366394</v>
+        <v>0.183473991753071</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9351099027366394</v>
+        <v>0.183473991753071</v>
       </c>
       <c r="T13" t="n">
-        <v>71.86998969886594</v>
+        <v>58.73514730396748</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[55.8908285273056, 87.84915087042627]</t>
+          <t>[46.76114006672607, 70.70915454120889]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.04647401855118e-11</v>
+        <v>7.58948459633757e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.04647401855118e-11</v>
+        <v>7.58948459633757e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4970970970971074</v>
+        <v>23.71811811811857</v>
       </c>
       <c r="Y13" t="n">
-        <v>-11.7314914914917</v>
+        <v>21.65785785785827</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.72568568568591</v>
+        <v>25.77837837837887</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02876368894042569</v>
+        <v>8.214972391262787e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02876368894042569</v>
+        <v>8.214972391262787e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>27.91036184600318</v>
+        <v>48.43482937371944</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[3.2391394391221553, 52.58158425288421]</t>
+          <t>[24.62128845064487, 72.24837029679401]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.02749159025288583</v>
+        <v>0.0001725187146655038</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02749159025288583</v>
+        <v>0.0001725187146655038</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.1195000208572692</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.0188949146777704, 1.5597897459264631]</t>
+          <t>[-0.47171060864711745, 0.7107106503616558]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6746935253782336</v>
+        <v>0.6858602012273325</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6746935253782336</v>
+        <v>0.6858602012273325</v>
       </c>
       <c r="T14" t="n">
-        <v>54.02167834009504</v>
+        <v>70.14511088893993</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[39.936949265520084, 68.10640741466999]</t>
+          <t>[56.2085674638501, 84.08165431402975]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.687768282555908e-10</v>
+        <v>3.386180225106727e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>8.687768282555908e-10</v>
+        <v>3.386180225106727e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>23.76124124124167</v>
+        <v>24.6226226226231</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.66599599599633</v>
+        <v>22.26086086086129</v>
       </c>
       <c r="Z14" t="n">
-        <v>28.856486486487</v>
+        <v>26.98438438438491</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001015497445051583</v>
+        <v>0.0001752834089875366</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001015497445051583</v>
+        <v>0.0001752834089875366</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>33.20724268198437</v>
+        <v>50.03297238447269</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[11.906714253085227, 54.50777111088351]</t>
+          <t>[20.57272940655791, 79.49321536238746]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.002982580554321101</v>
+        <v>0.001339187063974512</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002982580554321101</v>
+        <v>0.001339187063974512</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.4905790329930007</v>
+        <v>-0.4528421843012316</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.1572633598809245, 0.17610529389492324]</t>
+          <t>[-1.0440528138056173, 0.13836844520315417]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1452895059372719</v>
+        <v>0.1299031078774191</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1452895059372719</v>
+        <v>0.1299031078774191</v>
       </c>
       <c r="T15" t="n">
-        <v>50.15954207406931</v>
+        <v>66.95769276050213</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[38.44925883087922, 61.86982531725941]</t>
+          <t>[51.53966884735468, 82.37571667364958]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.291211830320663e-11</v>
+        <v>2.895728101748318e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>4.291211830320663e-11</v>
+        <v>2.895728101748318e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>1.938678678678713</v>
+        <v>1.809009009009046</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.6959359359359478</v>
+        <v>-0.5527527527527627</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.573293293293373</v>
+        <v>4.170770770770854</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.83000000000044</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.971602498957893e-06</v>
+        <v>0.0005956579327704992</v>
       </c>
       <c r="I16" t="n">
-        <v>2.971602498957893e-06</v>
+        <v>0.0005956579327704992</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>44.12626929151763</v>
+        <v>46.8872053956028</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[23.20465401616423, 65.04788456687103]</t>
+          <t>[17.919588328078362, 75.85482246312723]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0001068989327797087</v>
+        <v>0.002125991727217613</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001068989327797087</v>
+        <v>0.002125991727217613</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8931054190385401</v>
+        <v>-0.4780000834290776</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.3711055024676178, -0.4151053356094625]</t>
+          <t>[-1.1446844103170015, 0.18868424345884627]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0004831617890768136</v>
+        <v>0.1556448908277261</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0004831617890768136</v>
+        <v>0.1556448908277261</v>
       </c>
       <c r="T16" t="n">
-        <v>57.53691534545195</v>
+        <v>60.99503199338366</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[46.69462378287908, 68.37920690802483]</t>
+          <t>[45.1379803795473, 76.85208360722001]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.217248937900877e-14</v>
+        <v>8.058180789305425e-10</v>
       </c>
       <c r="W16" t="n">
-        <v>6.217248937900877e-14</v>
+        <v>8.058180789305425e-10</v>
       </c>
       <c r="X16" t="n">
-        <v>3.529389389389454</v>
+        <v>1.909509509509547</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.640420420420451</v>
+        <v>-0.7537537537537662</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.418358358358457</v>
+        <v>4.572772772772861</v>
       </c>
     </row>
   </sheetData>
